--- a/Web_DashBoard/Web_Dashboard_Test/TADashboard_TestData.xlsx
+++ b/Web_DashBoard/Web_Dashboard_Test/TADashboard_TestData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="5" r:id="rId1"/>
     <sheet name="PageData" sheetId="1" r:id="rId2"/>
     <sheet name="UpdatedPageData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>administrator</t>
   </si>
@@ -35,18 +35,12 @@
     <t>Public</t>
   </si>
   <si>
-    <t>Test_YYYYMMDD</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
     <t>Parent Name</t>
   </si>
   <si>
-    <t>Test_YYYYMMDD_Updated</t>
-  </si>
-  <si>
     <t>SampleRepository</t>
   </si>
   <si>
@@ -58,11 +52,14 @@
   <si>
     <t>Password</t>
   </si>
+  <si>
+    <t>Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -189,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -366,7 +363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -376,31 +373,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -416,24 +413,24 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -447,7 +444,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -459,25 +456,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -491,7 +488,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
